--- a/biology/Médecine/Maladie_des_brides_amniotiques/Maladie_des_brides_amniotiques.xlsx
+++ b/biology/Médecine/Maladie_des_brides_amniotiques/Maladie_des_brides_amniotiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie des brides amniotiques ou syndrome des brides amniotiques - en anglais : Constriction ring syndrome (CRS) - est une anomalie congénitale causée par le piégeage de parties du fœtus, généralement un membre[1], ou des doigts, dans des fibres de bandes amniotiques pendant qu'il est dans l'utérus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie des brides amniotiques ou syndrome des brides amniotiques - en anglais : Constriction ring syndrome (CRS) - est une anomalie congénitale causée par le piégeage de parties du fœtus, généralement un membre, ou des doigts, dans des fibres de bandes amniotiques pendant qu'il est dans l'utérus.
 </t>
         </is>
       </c>
@@ -511,18 +523,20 @@
           <t>Personnalités ayant cette maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sophie Wells, équipe paralympique Anglaise de dressage [2]
-Gina Casillas, joueur de volleyball [3]
-Ian T. Jamison, artiste [4]
-Anna Johannes nageuse paralympique[5]
-Jean-Jacques Machado, ceinture noire de jiu-jitsu brésilien[6]
-Kingsley McGowan , joueur de rugby[7]
-Lyric Mariah Heard mannequin[8]
-Shaquem Griffin, joueur de football américain (AAC Defensive Player of the Year 2016)[9],[10],[11]
-Jennifer Bricker , acrobate[12]
-Katarina Roxon, nageuse handisport[13]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sophie Wells, équipe paralympique Anglaise de dressage 
+Gina Casillas, joueur de volleyball 
+Ian T. Jamison, artiste 
+Anna Johannes nageuse paralympique
+Jean-Jacques Machado, ceinture noire de jiu-jitsu brésilien
+Kingsley McGowan , joueur de rugby
+Lyric Mariah Heard mannequin
+Shaquem Griffin, joueur de football américain (AAC Defensive Player of the Year 2016)
+Jennifer Bricker , acrobate
+Katarina Roxon, nageuse handisport</t>
         </is>
       </c>
     </row>
